--- a/Data/FamilyRoutinesCC.xlsx
+++ b/Data/FamilyRoutinesCC.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miM0yQyGQ+qJAYdAocSvHixVAXOKg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgmNxtkQsSg2Kllva3X4jk3rWLo7g=="/>
     </ext>
   </extLst>
 </workbook>
@@ -129,7 +129,7 @@
     <t>Many parents say that quality time is important for their families. How do you define quality time for your family?</t>
   </si>
   <si>
-    <t>Open ended</t>
+    <t>Open ended response</t>
   </si>
 </sst>
 </file>
@@ -309,7 +309,7 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>

--- a/Data/FamilyRoutinesCC.xlsx
+++ b/Data/FamilyRoutinesCC.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgmNxtkQsSg2Kllva3X4jk3rWLo7g=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Wp6USRga9B6b4B1doIArCXLPKsc8IpNCaBJshWVro6Y="/>
     </ext>
   </extLst>
 </workbook>
@@ -80,7 +80,7 @@
 Working parent(s) had a regular play time with the children after work. </t>
   </si>
   <si>
-    <t>09/08/2022-09/15/2022 01/11/2023-01/18/2023</t>
+    <t>09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Has this been a routine in the last week?

--- a/Data/FamilyRoutinesCC.xlsx
+++ b/Data/FamilyRoutinesCC.xlsx
@@ -80,7 +80,7 @@
 Working parent(s) had a regular play time with the children after work. </t>
   </si>
   <si>
-    <t>09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023</t>
+    <t>09/08/2022-09/15/2022 01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Has this been a routine in the last week?
